--- a/data/SCANS_hv_wide.xlsx
+++ b/data/SCANS_hv_wide.xlsx
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">output2!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="125">
   <si>
     <t>Subject</t>
   </si>
@@ -408,7 +408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,6 +540,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -886,11 +892,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1239,2382 +1244,2380 @@
   <dimension ref="A1:F119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="6" width="8.85546875" style="1"/>
+    <col min="1" max="3" width="8.85546875" style="1"/>
+    <col min="4" max="6" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>7.7617079990000004</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>7.6269587599999999</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>4.6936933989999998</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>4.8655878619999999</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>4.5319508700000002</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>4.3724137659999993</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
-        <v>6.7759343840000001</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C4" s="2">
+        <v>6.7759343839999993</v>
+      </c>
+      <c r="D4" s="2">
         <v>6.6914997139999999</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>5</v>
       </c>
-      <c r="C5" s="1">
-        <v>5.9052899549999998</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="2">
+        <v>5.9052899550000006</v>
+      </c>
+      <c r="D5" s="2">
         <v>5.9432203689999996</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>5.8279734929999991</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>5.773620803</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>7</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>5.9479726450000001</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="D6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>8</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>5.4212180590000001</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>5.4270144399999998</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>6.3923999069999997</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>6.4551418269999994</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>6.3336038630000004</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>6.2665957099999998</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>10</v>
       </c>
-      <c r="C9" s="1">
-        <v>4.9710088579999994</v>
-      </c>
-      <c r="D9" s="1">
+      <c r="C9" s="2">
+        <v>4.9710088580000003</v>
+      </c>
+      <c r="D9" s="2">
         <v>6.4356615240000004</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>6.3352606529999997</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>6.3264387000000006</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>7.5488399189999997</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>7.4654944169999995</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="2">
         <v>7.3046406260000003</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
-        <v>5.8673997259999995</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="C11" s="2">
+        <v>5.8673997260000004</v>
+      </c>
+      <c r="D11" s="2">
         <v>5.8642967840000004</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>6.1124600610000002</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>6.0403116379999995</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
-        <v>6.5815075290000005</v>
-      </c>
-      <c r="D12" s="1">
+      <c r="C12" s="2">
+        <v>6.5815075289999996</v>
+      </c>
+      <c r="D12" s="2">
         <v>6.4654106479999998</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>6.3647012489999995</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>6.4286669300000003</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>15</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C13" s="2">
+        <v>6.1909132680000001</v>
+      </c>
+      <c r="D13" s="2">
         <v>6.03721087</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>6.1557021029999994</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>6.3687040540000002</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>16</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C14" s="2">
+        <v>4.9199327410000002</v>
+      </c>
+      <c r="D14" s="2">
         <v>4.9598377989999998</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>4.8185248659999997</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>4.470881135</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>17</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C15" s="2">
+        <v>5.0155955219999999</v>
+      </c>
+      <c r="D15" s="2">
         <v>4.3428379060000006</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>18</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C16" s="2">
+        <v>5.4465705500000006</v>
+      </c>
+      <c r="D16" s="2">
         <v>5.3476517929999998</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>5.3035097640000002</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>5.4045127510000004</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>19</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C17" s="2">
+        <v>6.3719999499999993</v>
+      </c>
+      <c r="D17" s="2">
         <v>6.2302986589999998</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="2">
         <v>5.9543990049999991</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>5.931979708000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>20</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D18" s="1">
+      <c r="C18" s="2">
+        <v>6.378898253</v>
+      </c>
+      <c r="D18" s="2">
         <v>6.1728796349999993</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="2">
         <v>6.1469199010000004</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>6.528639182</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>21</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D19" s="1">
+      <c r="C19" s="2">
+        <v>6.2142505339999996</v>
+      </c>
+      <c r="D19" s="2">
         <v>6.3375784889999993</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="E19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="2">
         <v>6.6898802469999996</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>22</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="1">
+      <c r="C20" s="2">
+        <v>6.4643861519999994</v>
+      </c>
+      <c r="D20" s="2">
         <v>6.5037776679999997</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="2">
         <v>6.6846856280000004</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>6.3656241319999998</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>23</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="2">
         <v>6.1481832450000002</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="D21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>25</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="2">
         <v>5.9085898619999995</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="D22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="A23" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>26</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="2">
         <v>7.2758376939999998</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>7.1729915829999999</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>7.1498563290000003</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>7.0578850270000002</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>27</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="2">
         <v>6.3308222819999997</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>6.4051494709999997</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>28</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="1">
+      <c r="C25" s="2">
+        <v>6.5591315029999997</v>
+      </c>
+      <c r="D25" s="2">
         <v>6.2225231139999995</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="2">
         <v>6.5144578949999996</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>6.1561124220000005</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>29</v>
       </c>
-      <c r="C26" s="1">
-        <v>6.2364486070000007</v>
-      </c>
-      <c r="D26" s="1">
+      <c r="C26" s="2">
+        <v>6.2364486069999998</v>
+      </c>
+      <c r="D26" s="2">
         <v>6.1290228139999998</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F26" s="1">
+      <c r="E26" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="2">
         <v>6.0366622090000002</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>30</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="2">
         <v>5.3449253969999999</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="2">
         <v>5.2425230470000006</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="2">
         <v>4.977004365</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>31</v>
       </c>
-      <c r="C28" s="1">
-        <v>5.8039798310000004</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="C28" s="2">
+        <v>5.8039798309999995</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>32</v>
       </c>
-      <c r="C29" s="1">
-        <v>6.8623341939999998</v>
-      </c>
-      <c r="D29" s="1">
+      <c r="C29" s="2">
+        <v>6.8623341940000007</v>
+      </c>
+      <c r="D29" s="2">
         <v>6.780441154</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>6.736143813</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>6.744497033</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>34</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="2">
         <v>4.9097870839999995</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="2">
         <v>4.9216756050000008</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="2">
         <v>4.8241768649999992</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="2">
         <v>4.855972671</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>35</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="2">
         <v>5.281528969</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="2">
         <v>5.3151648409999996</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="E31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>36</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="2">
         <v>5.5205566660000001</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="D32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>37</v>
       </c>
-      <c r="C33" s="1">
-        <v>5.9148172489999995</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="C33" s="2">
+        <v>5.9148172490000004</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>38</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="2">
         <v>5.7706416239999996</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="2">
         <v>5.7064733710000004</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="1">
+      <c r="E34" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="2">
         <v>5.4590633580000008</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>39</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="2">
         <v>6.1872843900000003</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="D35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>40</v>
       </c>
-      <c r="C36" s="1">
-        <v>6.8204437400000009</v>
-      </c>
-      <c r="D36" s="1">
+      <c r="C36" s="2">
+        <v>6.82044374</v>
+      </c>
+      <c r="D36" s="2">
         <v>6.6548244560000001</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="2">
         <v>6.9425132090000004</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="2">
         <v>6.6670171689999993</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>41</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="2">
         <v>5.8707484880000003</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="2">
         <v>5.4880785350000005</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="E37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="1">
         <v>42</v>
       </c>
-      <c r="C38" s="1">
-        <v>6.3393171660000007</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="C38" s="2">
+        <v>6.3393171659999998</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="1">
         <v>43</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="2">
         <v>5.7003475849999994</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="2">
         <v>5.8088406269999995</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="2">
         <v>5.6300124589999996</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>5.1023595779999997</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="1">
         <v>44</v>
       </c>
-      <c r="C40" s="1">
-        <v>6.3857885550000004</v>
-      </c>
-      <c r="D40" s="1">
+      <c r="C40" s="2">
+        <v>6.3857885549999995</v>
+      </c>
+      <c r="D40" s="2">
         <v>6.1013208099999998</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="2">
         <v>6.00635751</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>6.3669387359999998</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="1">
         <v>45</v>
       </c>
-      <c r="C41" s="1">
-        <v>7.4499409830000003</v>
-      </c>
-      <c r="D41" s="1">
+      <c r="C41" s="2">
+        <v>7.4499409829999994</v>
+      </c>
+      <c r="D41" s="2">
         <v>7.5202043669999998</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="2">
         <v>7.2036676790000005</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>7.5305095870000001</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="1">
         <v>47</v>
       </c>
-      <c r="C42" s="1">
-        <v>8.4188536019999987</v>
-      </c>
-      <c r="D42" s="1">
+      <c r="C42" s="2">
+        <v>8.4188536020000004</v>
+      </c>
+      <c r="D42" s="2">
         <v>8.5726245149999993</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="2">
         <v>8.0987563700000003</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="2">
         <v>8.2198777330000006</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="1">
         <v>48</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="1">
+      <c r="C43" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="2">
         <v>6.5351312749999995</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="2">
         <v>6.6113344950000004</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>6.4889060599999997</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="1">
         <v>49</v>
       </c>
-      <c r="C44" s="1">
-        <v>6.2084901940000004</v>
-      </c>
-      <c r="D44" s="1">
+      <c r="C44" s="2">
+        <v>6.2084901939999995</v>
+      </c>
+      <c r="D44" s="2">
         <v>6.234804005</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="2">
         <v>6.3125416640000003</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>6.1960337490000006</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="1">
         <v>50</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C45" s="2">
         <v>6.0642472610000002</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="2">
         <v>5.8455273009999997</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="2">
         <v>5.9179462810000008</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="1">
         <v>51</v>
       </c>
-      <c r="C46" s="1">
-        <v>5.7178066129999996</v>
-      </c>
-      <c r="D46" s="1">
+      <c r="C46" s="2">
+        <v>5.7178066130000005</v>
+      </c>
+      <c r="D46" s="2">
         <v>5.9647730860000001</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="2">
         <v>5.6261439620000004</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="1">
         <v>54</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47" s="2">
         <v>6.6547426969999997</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="2">
         <v>6.5685357599999996</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>6.4970022929999995</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="1">
         <v>55</v>
       </c>
-      <c r="C48" s="1">
-        <v>5.4031287800000003</v>
-      </c>
-      <c r="D48" s="1">
+      <c r="C48" s="2">
+        <v>5.4031287799999994</v>
+      </c>
+      <c r="D48" s="2">
         <v>5.9079288219999997</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>6.0280966730000003</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>5.9267154849999999</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="1">
         <v>56</v>
       </c>
-      <c r="C49" s="1">
+      <c r="C49" s="2">
         <v>6.8226079530000003</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="D49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="1">
         <v>57</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50" s="2">
         <v>6.8746692409999994</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="D50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="1">
         <v>58</v>
       </c>
-      <c r="C51" s="1">
+      <c r="C51" s="2">
         <v>5.1307804340000001</v>
       </c>
-      <c r="D51" s="1">
+      <c r="D51" s="2">
         <v>5.1278556819999999</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="E51" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="1">
         <v>59</v>
       </c>
-      <c r="C52" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D52" s="1">
+      <c r="D52" s="2">
         <v>4.7481674970000007</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" s="2">
         <v>4.6906381819999998</v>
       </c>
-      <c r="F52" s="1">
+      <c r="F52" s="2">
         <v>4.5790175820000005</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="1">
         <v>60</v>
       </c>
-      <c r="C53" s="1">
-        <v>4.4873863679999992</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="C53" s="2">
+        <v>4.4873863680000001</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="1">
         <v>61</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E54" s="1">
+      <c r="C54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="2">
         <v>6.1692264780000006</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="F54" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="1">
         <v>62</v>
       </c>
-      <c r="C55" s="1">
+      <c r="C55" s="2">
         <v>4.2000516169999997</v>
       </c>
-      <c r="D55" s="1">
+      <c r="D55" s="2">
         <v>4.2370007410000001</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" s="2">
         <v>4.2386027030000006</v>
       </c>
-      <c r="F55" s="1">
+      <c r="F55" s="2">
         <v>4.1935159359999998</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="1">
         <v>63</v>
       </c>
-      <c r="C56" s="1">
+      <c r="C56" s="2">
         <v>6.8836909589999999</v>
       </c>
-      <c r="D56" s="1">
+      <c r="D56" s="2">
         <v>6.6718337050000001</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" s="2">
         <v>6.5299963310000004</v>
       </c>
-      <c r="F56" s="1">
+      <c r="F56" s="2">
         <v>6.5816701069999999</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="1">
         <v>64</v>
       </c>
-      <c r="C57" s="1">
-        <v>6.1917321759999995</v>
-      </c>
-      <c r="D57" s="1">
+      <c r="C57" s="2">
+        <v>6.1917321760000004</v>
+      </c>
+      <c r="D57" s="2">
         <v>6.1771523410000011</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" s="2">
         <v>6.2216502899999995</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="F57" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+      <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="1">
         <v>65</v>
       </c>
-      <c r="C58" s="1">
-        <v>5.6248730369999995</v>
-      </c>
-      <c r="D58" s="1">
+      <c r="C58" s="2">
+        <v>5.6248730370000004</v>
+      </c>
+      <c r="D58" s="2">
         <v>5.6831683660000003</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" s="2">
         <v>5.3878730510000006</v>
       </c>
-      <c r="F58" s="1">
+      <c r="F58" s="2">
         <v>5.335004756</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="1">
         <v>66</v>
       </c>
-      <c r="C59" s="1">
-        <v>6.9002719959999999</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F59" s="1" t="s">
+      <c r="C59" s="2">
+        <v>6.9002719960000007</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="1">
         <v>67</v>
       </c>
-      <c r="C60" s="1">
+      <c r="C60" s="2">
         <v>5.5686736290000001</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="E60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="1">
         <v>68</v>
       </c>
-      <c r="C61" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D61" s="1">
+      <c r="C61" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="2">
         <v>6.1089075219999991</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" s="2">
         <v>5.7444940730000003</v>
       </c>
-      <c r="F61" s="1">
+      <c r="F61" s="2">
         <v>5.888519928</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="1">
         <v>69</v>
       </c>
-      <c r="C62" s="1">
+      <c r="C62" s="2">
         <v>7.2974881890000001</v>
       </c>
-      <c r="D62" s="1">
+      <c r="D62" s="2">
         <v>7.0666993929999995</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" s="2">
         <v>6.9849591880000004</v>
       </c>
-      <c r="F62" s="1">
+      <c r="F62" s="2">
         <v>7.1299951299999993</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="1">
         <v>70</v>
       </c>
-      <c r="C63" s="1">
-        <v>4.9926415820000001</v>
-      </c>
-      <c r="D63" s="1">
+      <c r="C63" s="2">
+        <v>4.9926415819999992</v>
+      </c>
+      <c r="D63" s="2">
         <v>4.9958600439999996</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" s="2">
         <v>4.5566133229999997</v>
       </c>
-      <c r="F63" s="1">
+      <c r="F63" s="2">
         <v>4.7260041729999998</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="1">
         <v>71</v>
       </c>
-      <c r="C64" s="1">
+      <c r="C64" s="2">
         <v>6.2985234730000004</v>
       </c>
-      <c r="D64" s="1">
+      <c r="D64" s="2">
         <v>6.1334337029999997</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" s="2">
         <v>6.202653003</v>
       </c>
-      <c r="F64" s="1">
+      <c r="F64" s="2">
         <v>6.1314716879999995</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="1">
         <v>72</v>
       </c>
-      <c r="C65" s="1">
+      <c r="C65" s="2">
         <v>5.8982624260000005</v>
       </c>
-      <c r="D65" s="1">
+      <c r="D65" s="2">
         <v>5.9596316420000006</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>5.9012439130000001</v>
       </c>
-      <c r="F65" s="1">
+      <c r="F65" s="2">
         <v>5.9943084330000005</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
+      <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="1">
         <v>73</v>
       </c>
-      <c r="C66" s="1">
-        <v>4.8471086209999994</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="C66" s="2">
+        <v>4.8471086210000003</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="1">
         <v>74</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D67" s="1">
+      <c r="C67" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" s="2">
         <v>5.379168095999999</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" s="2">
         <v>5.3344423839999999</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="F67" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="A68" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="1">
         <v>75</v>
       </c>
-      <c r="C68" s="1">
-        <v>5.878141941</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F68" s="1" t="s">
+      <c r="C68" s="2">
+        <v>5.8781419410000009</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+      <c r="A69" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="1">
         <v>76</v>
       </c>
-      <c r="C69" s="1">
-        <v>5.6391737709999994</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F69" s="1" t="s">
+      <c r="C69" s="2">
+        <v>5.6391737710000003</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="1">
         <v>77</v>
       </c>
-      <c r="C70" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D70" s="1">
+      <c r="C70" s="2">
+        <v>2.7274088619999999</v>
+      </c>
+      <c r="D70" s="2">
         <v>4.9422583479999993</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F70" s="1">
+      <c r="E70" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="2">
         <v>4.7903720720000003</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="1">
         <v>78</v>
       </c>
-      <c r="C71" s="1">
-        <v>6.4718414749999988</v>
-      </c>
-      <c r="D71" s="1">
+      <c r="C71" s="2">
+        <v>6.4718414749999997</v>
+      </c>
+      <c r="D71" s="2">
         <v>6.4617344069999998</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F71" s="1" t="s">
+      <c r="E71" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="1">
         <v>79</v>
       </c>
-      <c r="C72" s="1">
+      <c r="C72" s="2">
         <v>5.6756329860000001</v>
       </c>
-      <c r="D72" s="1">
+      <c r="D72" s="2">
         <v>5.5191876740000003</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" s="2">
         <v>5.4671477800000003</v>
       </c>
-      <c r="F72" s="1">
+      <c r="F72" s="2">
         <v>5.4152640989999998</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
+      <c r="A73" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="1">
         <v>80</v>
       </c>
-      <c r="C73" s="1">
+      <c r="C73" s="2">
         <v>7.363437791</v>
       </c>
-      <c r="D73" s="1">
+      <c r="D73" s="2">
         <v>7.2911143359999997</v>
       </c>
-      <c r="E73" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F73" s="1" t="s">
+      <c r="E73" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="A74" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="1">
         <v>81</v>
       </c>
-      <c r="C74" s="1">
+      <c r="C74" s="2">
         <v>6.1051315260000001</v>
       </c>
-      <c r="D74" s="1">
+      <c r="D74" s="2">
         <v>6.1081029760000005</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" s="2">
         <v>6.1919364869999995</v>
       </c>
-      <c r="F74" s="1">
+      <c r="F74" s="2">
         <v>6.0452377849999994</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="A75" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="1">
         <v>82</v>
       </c>
-      <c r="C75" s="1">
+      <c r="C75" s="2">
         <v>4.9244453840000002</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F75" s="1" t="s">
+      <c r="D75" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="A76" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="1">
         <v>83</v>
       </c>
-      <c r="C76" s="1">
+      <c r="C76" s="2">
         <v>5.0929772599999996</v>
       </c>
-      <c r="D76" s="1">
+      <c r="D76" s="2">
         <v>5.1096459530000002</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" s="2">
         <v>5.3027087379999998</v>
       </c>
-      <c r="F76" s="1">
+      <c r="F76" s="2">
         <v>5.0317569629999994</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="1">
         <v>84</v>
       </c>
-      <c r="C77" s="1">
+      <c r="C77" s="2">
         <v>5.8927974340000002</v>
       </c>
-      <c r="D77" s="1">
+      <c r="D77" s="2">
         <v>5.8876860740000003</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" s="2">
         <v>5.7902318319999999</v>
       </c>
-      <c r="F77" s="1">
+      <c r="F77" s="2">
         <v>5.9159356150000004</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+      <c r="A78" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="1">
         <v>85</v>
       </c>
-      <c r="C78" s="1">
-        <v>7.9771777960000003</v>
-      </c>
-      <c r="D78" s="1">
+      <c r="C78" s="2">
+        <v>7.9771777959999994</v>
+      </c>
+      <c r="D78" s="2">
         <v>7.8665993639999998</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" s="2">
         <v>7.6132167100000006</v>
       </c>
-      <c r="F78" s="1">
+      <c r="F78" s="2">
         <v>7.3499902490000002</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
+      <c r="A79" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="1">
         <v>86</v>
       </c>
-      <c r="C79" s="1">
-        <v>6.5330188500000004</v>
-      </c>
-      <c r="D79" s="1">
+      <c r="C79" s="2">
+        <v>6.5330188499999995</v>
+      </c>
+      <c r="D79" s="2">
         <v>6.3246827290000001</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" s="2">
         <v>6.1356023420000003</v>
       </c>
-      <c r="F79" s="1">
+      <c r="F79" s="2">
         <v>6.3874255190000007</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
+      <c r="A80" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="1">
         <v>87</v>
       </c>
-      <c r="C80" s="1">
+      <c r="C80" s="2">
         <v>6.3871908849999999</v>
       </c>
-      <c r="D80" s="1">
+      <c r="D80" s="2">
         <v>6.3588665149999999</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" s="2">
         <v>6.2245863569999997</v>
       </c>
-      <c r="F80" s="1">
+      <c r="F80" s="2">
         <v>6.1038478679999999</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
+      <c r="A81" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="1">
         <v>89</v>
       </c>
-      <c r="C81" s="1">
-        <v>6.4218192369999993</v>
-      </c>
-      <c r="D81" s="1">
+      <c r="C81" s="2">
+        <v>6.4218192370000002</v>
+      </c>
+      <c r="D81" s="2">
         <v>6.4555553419999994</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" s="2">
         <v>6.4424021260000002</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F81" s="2">
         <v>6.2831634740000002</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
+      <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="1">
         <v>90</v>
       </c>
-      <c r="C82" s="1">
-        <v>4.9010072870000005</v>
-      </c>
-      <c r="D82" s="1">
+      <c r="C82" s="2">
+        <v>4.9010072869999997</v>
+      </c>
+      <c r="D82" s="2">
         <v>5.0007688309999994</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" s="2">
         <v>4.9854675039999998</v>
       </c>
-      <c r="F82" s="1">
+      <c r="F82" s="2">
         <v>4.9380137240000002</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
+      <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="1">
         <v>91</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="2">
         <v>6.2477823250000002</v>
       </c>
-      <c r="D83" s="1">
+      <c r="D83" s="2">
         <v>6.1713042839999996</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" s="2">
         <v>6.1524585310000006</v>
       </c>
-      <c r="F83" s="1">
+      <c r="F83" s="2">
         <v>6.2041695899999993</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="1">
         <v>92</v>
       </c>
-      <c r="C84" s="1">
-        <v>5.5479932370000009</v>
-      </c>
-      <c r="D84" s="1">
+      <c r="C84" s="2">
+        <v>5.547993237</v>
+      </c>
+      <c r="D84" s="2">
         <v>5.4361488260000002</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" s="2">
         <v>5.5750692270000002</v>
       </c>
-      <c r="F84" s="1">
+      <c r="F84" s="2">
         <v>5.595485386</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="1">
         <v>93</v>
       </c>
-      <c r="C85" s="1">
+      <c r="C85" s="2">
         <v>5.3593012240000002</v>
       </c>
-      <c r="D85" s="1">
+      <c r="D85" s="2">
         <v>5.3251001460000005</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" s="2">
         <v>5.1998781130000005</v>
       </c>
-      <c r="F85" s="1">
+      <c r="F85" s="2">
         <v>5.4783470740000002</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="1">
         <v>95</v>
       </c>
-      <c r="C86" s="1">
-        <v>5.5338942490000003</v>
-      </c>
-      <c r="D86" s="1">
+      <c r="C86" s="2">
+        <v>5.5338942489999994</v>
+      </c>
+      <c r="D86" s="2">
         <v>5.5641944319999999</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" s="2">
         <v>5.2603264110000003</v>
       </c>
-      <c r="F86" s="1">
+      <c r="F86" s="2">
         <v>4.8613502650000004</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
+      <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="1">
         <v>96</v>
       </c>
-      <c r="C87" s="1">
+      <c r="C87" s="2">
         <v>5.7628031850000001</v>
       </c>
-      <c r="D87" s="1">
+      <c r="D87" s="2">
         <v>5.6689450939999997</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F87" s="1" t="s">
+      <c r="E87" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="1">
         <v>97</v>
       </c>
-      <c r="C88" s="1">
-        <v>6.5503068119999996</v>
-      </c>
-      <c r="D88" s="1">
+      <c r="C88" s="2">
+        <v>6.5503068120000005</v>
+      </c>
+      <c r="D88" s="2">
         <v>6.5117668880000004</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" s="2">
         <v>6.2576181809999998</v>
       </c>
-      <c r="F88" s="1">
+      <c r="F88" s="2">
         <v>6.2167596830000003</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
+      <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="1">
         <v>98</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="2">
         <v>6.5559541360000004</v>
       </c>
-      <c r="D89" s="1">
+      <c r="D89" s="2">
         <v>6.4568120689999997</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" s="2">
         <v>6.3845490160000002</v>
       </c>
-      <c r="F89" s="1">
+      <c r="F89" s="2">
         <v>6.364582318000001</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
+      <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="1">
         <v>99</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="2">
         <v>5.9317447630000002</v>
       </c>
-      <c r="D90" s="1">
+      <c r="D90" s="2">
         <v>5.9373324900000002</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" s="2">
         <v>5.9401950870000002</v>
       </c>
-      <c r="F90" s="1">
+      <c r="F90" s="2">
         <v>5.9480414850000001</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
+      <c r="A91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="1">
         <v>100</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="2">
         <v>5.5606557389999995</v>
       </c>
-      <c r="D91" s="1">
+      <c r="D91" s="2">
         <v>5.637228511</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" s="2">
         <v>5.584539575</v>
       </c>
-      <c r="F91" s="1">
+      <c r="F91" s="2">
         <v>5.4637970710000001</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
+      <c r="A92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="1">
         <v>101</v>
       </c>
-      <c r="C92" s="1">
-        <v>6.3339706989999991</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F92" s="1" t="s">
+      <c r="C92" s="2">
+        <v>6.333970699</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="A93" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="1">
         <v>102</v>
       </c>
-      <c r="C93" s="1">
-        <v>5.3833274010000007</v>
-      </c>
-      <c r="D93" s="1">
+      <c r="C93" s="2">
+        <v>5.3833274009999998</v>
+      </c>
+      <c r="D93" s="2">
         <v>5.2485660980000004</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" s="2">
         <v>5.2313978780000001</v>
       </c>
-      <c r="F93" s="1">
+      <c r="F93" s="2">
         <v>5.2606890220000002</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
+      <c r="A94" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="1">
         <v>104</v>
       </c>
-      <c r="C94" s="1">
+      <c r="C94" s="2">
         <v>6.9661680620000004</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E94" s="1">
+      <c r="D94" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E94" s="2">
         <v>7.119780993</v>
       </c>
-      <c r="F94" s="1">
+      <c r="F94" s="2">
         <v>6.9031628840000003</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+      <c r="A95" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="1">
         <v>105</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="2">
         <v>5.1418514149999996</v>
       </c>
-      <c r="D95" s="1">
+      <c r="D95" s="2">
         <v>6.4060463130000009</v>
       </c>
-      <c r="E95" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F95" s="1" t="s">
+      <c r="E95" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+      <c r="A96" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="1">
         <v>106</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="2">
         <v>2.4666924969999999</v>
       </c>
-      <c r="D96" s="1">
+      <c r="D96" s="2">
         <v>6.4419107910000006</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" s="2">
         <v>6.7002837140000002</v>
       </c>
-      <c r="F96" s="1">
+      <c r="F96" s="2">
         <v>6.6088567299999994</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="1">
         <v>108</v>
       </c>
-      <c r="C97" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D97" s="1">
+      <c r="C97" s="2">
+        <v>6.5365005279999995</v>
+      </c>
+      <c r="D97" s="2">
         <v>6.4925277260000005</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F97" s="1" t="s">
+      <c r="E97" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+      <c r="A98" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="1">
         <v>109</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="2">
         <v>5.565198165</v>
       </c>
-      <c r="D98" s="1">
+      <c r="D98" s="2">
         <v>5.6489485349999997</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" s="2">
         <v>5.4774457330000006</v>
       </c>
-      <c r="F98" s="1">
+      <c r="F98" s="2">
         <v>5.443364892</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
+      <c r="A99" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="1">
         <v>110</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="2">
         <v>5.0989297679999996</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F99" s="1" t="s">
+      <c r="D99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
+      <c r="A100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="1">
         <v>111</v>
       </c>
-      <c r="C100" s="1">
-        <v>6.4384623329999995</v>
-      </c>
-      <c r="D100" s="1">
+      <c r="C100" s="2">
+        <v>6.4384623330000004</v>
+      </c>
+      <c r="D100" s="2">
         <v>6.3577530069999995</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F100" s="1" t="s">
+      <c r="E100" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="1">
         <v>113</v>
       </c>
-      <c r="C101" s="1">
-        <v>6.2866127510000007</v>
-      </c>
-      <c r="D101" s="1">
+      <c r="C101" s="2">
+        <v>6.2866127509999998</v>
+      </c>
+      <c r="D101" s="2">
         <v>6.337939156</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F101" s="1" t="s">
+      <c r="E101" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
+      <c r="A102" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="1">
         <v>115</v>
       </c>
-      <c r="C102" s="1">
+      <c r="C102" s="2">
         <v>5.1227957310000001</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D102" s="2">
         <v>6.6338734029999999</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F102" s="1" t="s">
+      <c r="E102" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
+      <c r="A103" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="1">
         <v>116</v>
       </c>
-      <c r="C103" s="1">
-        <v>1.1599180249999999</v>
-      </c>
-      <c r="D103" s="1">
+      <c r="C103" s="2">
+        <v>1.1599180250000001</v>
+      </c>
+      <c r="D103" s="2">
         <v>6.7237895730000004</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" s="2">
         <v>6.6496751600000001</v>
       </c>
-      <c r="F103" s="1">
+      <c r="F103" s="2">
         <v>6.5812993039999999</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="A104" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="1">
         <v>117</v>
       </c>
-      <c r="C104" s="1">
-        <v>6.0309362640000002</v>
-      </c>
-      <c r="D104" s="1">
+      <c r="C104" s="2">
+        <v>6.0309362639999993</v>
+      </c>
+      <c r="D104" s="2">
         <v>6.076254821</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" s="2">
         <v>6.1010134069999999</v>
       </c>
-      <c r="F104" s="1">
+      <c r="F104" s="2">
         <v>6.0396560380000004</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="A105" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="1">
         <v>120</v>
       </c>
-      <c r="C105" s="1">
-        <v>6.7424026570000004</v>
-      </c>
-      <c r="D105" s="1">
+      <c r="C105" s="2">
+        <v>6.7424026569999995</v>
+      </c>
+      <c r="D105" s="2">
         <v>6.6326093049999999</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" s="2">
         <v>6.6146734680000003</v>
       </c>
-      <c r="F105" s="1">
+      <c r="F105" s="2">
         <v>6.4965547859999999</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="A106" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="1">
         <v>121</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C106" s="2">
         <v>7.1766910470000003</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F106" s="1" t="s">
+      <c r="D106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="A107" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="1">
         <v>123</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C107" s="2">
         <v>7.0493020360000003</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D107" s="2">
         <v>6.9583840020000007</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" s="2">
         <v>6.7766689509999996</v>
       </c>
-      <c r="F107" s="1">
+      <c r="F107" s="2">
         <v>6.8526401840000002</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+      <c r="A108" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="1">
         <v>124</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C108" s="2">
         <v>6.2480404479999994</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D108" s="2">
         <v>6.1768575510000003</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" s="2">
         <v>6.2507481669999994</v>
       </c>
-      <c r="F108" s="1">
+      <c r="F108" s="2">
         <v>6.2005198519999993</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="A109" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="1">
         <v>125</v>
       </c>
-      <c r="C109" s="1">
-        <v>3.5409254609999996</v>
-      </c>
-      <c r="D109" s="1">
+      <c r="C109" s="2">
+        <v>3.5409254610000001</v>
+      </c>
+      <c r="D109" s="2">
         <v>6.5346307479999997</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F109" s="1">
+      <c r="E109" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F109" s="2">
         <v>6.4894577159999995</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="1">
         <v>126</v>
       </c>
-      <c r="C110" s="1">
+      <c r="C110" s="2">
         <v>5.4842122149999994</v>
       </c>
-      <c r="D110" s="1">
+      <c r="D110" s="2">
         <v>5.1264850220000007</v>
       </c>
-      <c r="E110" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F110" s="1" t="s">
+      <c r="E110" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F110" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="1">
         <v>127</v>
       </c>
-      <c r="C111" s="1">
+      <c r="C111" s="2">
         <v>5.8720055289999999</v>
       </c>
-      <c r="D111" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F111" s="1" t="s">
+      <c r="D111" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="1">
         <v>128</v>
       </c>
-      <c r="C112" s="1">
-        <v>5.5271594609999992</v>
-      </c>
-      <c r="D112" s="1">
+      <c r="C112" s="2">
+        <v>5.5271594610000001</v>
+      </c>
+      <c r="D112" s="2">
         <v>5.4151030690000006</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" s="2">
         <v>5.2928930860000003</v>
       </c>
-      <c r="F112" s="1">
+      <c r="F112" s="2">
         <v>5.1705025439999996</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="1">
         <v>129</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C113" s="2">
         <v>5.8720967210000001</v>
       </c>
-      <c r="D113" s="1">
+      <c r="D113" s="2">
         <v>5.8239008539999997</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" s="2">
         <v>5.8761528419999998</v>
       </c>
-      <c r="F113" s="1">
+      <c r="F113" s="2">
         <v>5.7625009839999999</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="1">
         <v>130</v>
       </c>
-      <c r="C114" s="1">
-        <v>6.8319368109999994</v>
-      </c>
-      <c r="D114" s="1">
+      <c r="C114" s="2">
+        <v>6.8319368110000003</v>
+      </c>
+      <c r="D114" s="2">
         <v>6.5150928960000005</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" s="2">
         <v>6.3398282000000004</v>
       </c>
-      <c r="F114" s="1">
+      <c r="F114" s="2">
         <v>6.1831270509999996</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
+      <c r="A115" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="1">
         <v>131</v>
       </c>
-      <c r="C115" s="1">
+      <c r="C115" s="2">
         <v>7.4648057209999994</v>
       </c>
-      <c r="D115" s="1">
+      <c r="D115" s="2">
         <v>7.5533042129999997</v>
       </c>
-      <c r="E115" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F115" s="1" t="s">
+      <c r="E115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="1">
         <v>132</v>
       </c>
-      <c r="C116" s="1">
+      <c r="C116" s="2">
         <v>7.0632769240000002</v>
       </c>
-      <c r="D116" s="1">
+      <c r="D116" s="2">
         <v>6.8958255420000008</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" s="2">
         <v>6.8123056529999992</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="F116" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="1">
         <v>133</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C117" s="2">
         <v>5.3736062330000003</v>
       </c>
-      <c r="D117" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F117" s="1" t="s">
+      <c r="D117" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="A118" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="1">
         <v>134</v>
       </c>
-      <c r="C118" s="1">
-        <v>5.7865052859999997</v>
-      </c>
-      <c r="D118" s="1">
+      <c r="C118" s="2">
+        <v>5.7865052860000006</v>
+      </c>
+      <c r="D118" s="2">
         <v>5.6162854810000011</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" s="2">
         <v>6.3483700599999997</v>
       </c>
-      <c r="F118" s="1">
+      <c r="F118" s="2">
         <v>6.0207138109999994</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+      <c r="A119" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="1">
         <v>135</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C119" s="2">
         <v>4.673746306</v>
       </c>
-      <c r="D119" s="1">
+      <c r="D119" s="2">
         <v>3.707785576</v>
       </c>
-      <c r="E119" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F119" s="1" t="s">
+      <c r="E119" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>114</v>
       </c>
     </row>
